--- a/excel/Cleaned_Data.xlsx
+++ b/excel/Cleaned_Data.xlsx
@@ -881,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
